--- a/medicine/Enfance/Peter_Sís/Peter_Sís.xlsx
+++ b/medicine/Enfance/Peter_Sís/Peter_Sís.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peter_S%C3%ADs</t>
+          <t>Peter_Sís</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Sís, né le 11 mai 1949[1], est un écrivain et illustrateur tchèque, auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Sís, né le 11 mai 1949, est un écrivain et illustrateur tchèque, auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peter_S%C3%ADs</t>
+          <t>Peter_Sís</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il décrit sa vie dans l'ouvrage Le Mur : mon enfance derrière le Rideau de Fer. Il étudie les arts appliqués à l'université de Prague, entre 1968 et 1974. Il commence sa carrière dans l'édition pour la jeunesse en 1981 En 1982, il part aux États-Unis pour participer au festival d'animation de Los Angeles, et décide de rester dans ce pays.
-Bien que destinés aux enfants, beaucoup de ses ouvrages s'adressent à un public plus large. Il raconte les histoires à l'aide de cartes de toutes sortes, et de symbolisme bouddhiste, dont il garde une profonde attirance à la suite d'un voyage que son père, Vladimir Sis, avait réalisé au Tibet[2].
-En 2011, il publie l'album illustré La Conférences des oiseaux, s'appuyant sur différentes traductions et adaptations de l'œuvre éponyme du XIIe siècle du poète persan Farid al-Din Attar[3], et traduite en France l'année suivante aux Éditions de La Martinière.
-Il obtient par deux fois le Prix BolognaRagazzi dans la catégorie Non Fiction : en 2004 pour The Tree of Life (L'Arbre de la Vie), et en 2008 pour The Wall (Le Mur), et par trois fois l'Honor Books de la Médaille Caldecott[4].
+Bien que destinés aux enfants, beaucoup de ses ouvrages s'adressent à un public plus large. Il raconte les histoires à l'aide de cartes de toutes sortes, et de symbolisme bouddhiste, dont il garde une profonde attirance à la suite d'un voyage que son père, Vladimir Sis, avait réalisé au Tibet.
+En 2011, il publie l'album illustré La Conférences des oiseaux, s'appuyant sur différentes traductions et adaptations de l'œuvre éponyme du XIIe siècle du poète persan Farid al-Din Attar, et traduite en France l'année suivante aux Éditions de La Martinière.
+Il obtient par deux fois le Prix BolognaRagazzi dans la catégorie Non Fiction : en 2004 pour The Tree of Life (L'Arbre de la Vie), et en 2008 pour The Wall (Le Mur), et par trois fois l'Honor Books de la Médaille Caldecott.
 En 2012, il est lauréat du prestigieux Prix Hans Christian Andersen, décerné pour sa contribution régulière (lasting contribution) dans l'illustration des livres pour enfants.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peter_S%C3%ADs</t>
+          <t>Peter_Sís</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Christophe Colomb, jusqu'au bout du rêve (Follow the dream : the story of Christopher Colombus), Albin Michel, 1992 ; rééd. revue et augmentée, Grasset, 1996
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Christophe Colomb, jusqu'au bout du rêve (Follow the dream : the story of Christopher Colombus), Albin Michel, 1992 ; rééd. revue et augmentée, Grasset, 1996
 Komodo ! L’île aux dragons, Grasset, 1994.
 Petit conte du Grand Nord (A small tall tale from the far far North ), Grasset, 1995.
 Les Trois Clés d'or de Prague (The three golden keys), Grasset Jeunesse, 1995, et rééd.
@@ -561,11 +580,45 @@
 L’Arbre de la Vie : La Vie de Charles Darwin, naturaliste, géologue et penseur (The Tree of Life), Grasset, 2004.Prix BolognaRagazzi 2004, catégorie Non Fiction
 Le Mur : Mon enfance derrière le rideau de fer (The Wall), Grasset, 2007.Prix BolognaRagazzi 2008, catégorie Non Fiction - Honor Books Médaille Caldecott 2008
 Madlenka, star du foot (Madlenka soccer star), Grasset Jeunesse, 2012.
-La Conférence des oiseaux, Éditions de La Martinière, 2012 - d'après l'œuvre éponyme du XIIe siècle du poète persan Farid al-Din Attar[3]
+La Conférence des oiseaux, Éditions de La Martinière, 2012 - d'après l'œuvre éponyme du XIIe siècle du poète persan Farid al-Din Attar
 Le Pilote et le Petit Prince : la vie d'Antoine de Saint-Exupéry (The pilot and the Little Prince), Grasset Jeunesse, 2014
-Un été crème glacée (Ice Cream Summer, 2015), Grasset Jeunesse, 2016
-Illustrateur
-Contes baltes, racontés par Miloš Malý ; traduit du tchèque par Claude Clément, Paris, Gründ, 1981
+Un été crème glacée (Ice Cream Summer, 2015), Grasset Jeunesse, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peter_Sís</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_S%C3%ADs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Contes baltes, racontés par Miloš Malý ; traduit du tchèque par Claude Clément, Paris, Gründ, 1981
 Le Souffre-douleur (The Whipping boy) de Sid Fleischman ; trad. de l'américain par Alain Cappon, Paris, l'Ecole des loisirs, 1988
 Un Nain nommé Gustave (Eine Zwergengeschichte) de Max Bolliger ; ill. de Peter Sís, Paris, Ed. Epigones, 1988
 La nuit des dragons, de Jack Prelutsky ; trad. de l'anglais par Cécile Wajsbrot, Paris, Grasset jeunesse, 1997
@@ -574,39 +627,41 @@
 Gargouilles et vampires, poèmes de Jack Prelutsky ; adapté de l'anglais par Alice Marchand, Paris, Grasset jeunesse, 2001
 Les animélos, poèmes de Jack Prelutsky ; traduction et adaptation d'Alice Marchand, Paris, Grasset jeunesse, 2006
 La conférence des oiseaux (The conference of the birds) de Farid ud-Din Attar ; traduction de Jacob Bromberg ; avec la collaboration de Marine Ninaud, Paris, La Martinière, 2012
-Le Rêveur[5] (The Dreamer), texte de Pam Muñoz Ryan, ; trad. Pascale Houssin, Bayard Jeunesse, 2013 - sur le poète chilien Pablo Neruda[6]
+Le Rêveur (The Dreamer), texte de Pam Muñoz Ryan, ; trad. Pascale Houssin, Bayard Jeunesse, 2013 - sur le poète chilien Pablo Neruda
 Prix Sorcières 2014 catégorie Roman 9-12</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Peter_S%C3%ADs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Peter_Sís</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Peter_S%C3%ADs</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1997 : Finaliste (Honor Books) Médaille Caldecott pour Starry Messenger (Le Messager des étoiles)
-1998 : (international) « Honour List »[7] de l' IBBY pour Starry Messenger (Le Messager des étoiles)
+1998 : (international) « Honour List » de l' IBBY pour Starry Messenger (Le Messager des étoiles)
 1999 : Finaliste (Honor Books) Médaille Caldecott pour Tibet : Through the Red Box (Le Tibet : les secrets d'une boîte rouge)
 2001 : Prix Sorcières catégorie Albums, pour Madlenka
 2003 : Prix MacArthur
@@ -614,9 +669,9 @@
 2008 : Prix BolognaRagazzi catégorie Non Fiction, pour The Wall (Le Mur)
 2008 : Finaliste (Honor Books) Médaille Caldecott pour The Wall (Le Mur)
 2012 : Prix Hans Christian Andersen d'illustration
-2013 : Meilleur livre jeunesse[5] au classement des Meilleurs livres de l'année du magazine Lire pour Le rêveur, texte de Pam Muñoz Ryan, qu'il a illustré
+2013 : Meilleur livre jeunesse au classement des Meilleurs livres de l'année du magazine Lire pour Le rêveur, texte de Pam Muñoz Ryan, qu'il a illustré
 2014 : Prix Sorcières catégorie Roman 9-12, pour Le rêveur, texte de Pam Muñoz Ryan, qu'il a illustré
-2014 : New York Times Best Illustrated Books Awards 2014[8] pour The pilot and the Little Prince (Le Pilote et le Petit Prince : la vie d'Antoine de Saint-Exupéry)</t>
+2014 : New York Times Best Illustrated Books Awards 2014 pour The pilot and the Little Prince (Le Pilote et le Petit Prince : la vie d'Antoine de Saint-Exupéry)</t>
         </is>
       </c>
     </row>
